--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D12257A-CE71-44BF-AEC6-8B8917C94A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105CABA-8296-48AC-B587-FB058F9A6080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="113">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,34 @@
   </si>
   <si>
     <t>1000고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,11 +884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B50" si="0">B3*10</f>
+        <f t="shared" ref="B4:B53" si="0">B3*10</f>
         <v>1.0000000000000001E+98</v>
       </c>
       <c r="C4" t="s">
@@ -1785,6 +1813,82 @@
       <c r="E49" s="1" t="str">
         <f>VLOOKUP(A49,abilvalue!C:E,3,FALSE)</f>
         <v>0.48,0.36,0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>VLOOKUP(A50,abilvalue!C:E,3,FALSE)</f>
+        <v>0.49,0.37,0.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000003E+145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>VLOOKUP(A51,abilvalue!C:E,3,FALSE)</f>
+        <v>0.5,0.38,0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>VLOOKUP(A52,abilvalue!C:E,3,FALSE)</f>
+        <v>0.51,0.39,0.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>VLOOKUP(A53,abilvalue!C:E,3,FALSE)</f>
+        <v>0.52,0.4,0.22</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2947,6 +3051,20 @@
         <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
+      <c r="L39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M39" s="3">
+        <v>140</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" ref="N39:N41" si="7">POWER(10,M39)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="O39" s="4" t="str">
+        <f t="shared" ref="O39:O41" si="8">RIGHT(N39,M39)</f>
+        <v>1E+140</v>
+      </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40">
@@ -2971,6 +3089,20 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
+      <c r="L40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="3">
+        <v>144</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="7"/>
+        <v>1E+144</v>
+      </c>
+      <c r="O40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>1E+144</v>
+      </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41">
@@ -2994,6 +3126,20 @@
       <c r="H41">
         <f t="shared" si="6"/>
         <v>0.06</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M41" s="3">
+        <v>148</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="7"/>
+        <v>1E+148</v>
+      </c>
+      <c r="O41" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>1E+148</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105CABA-8296-48AC-B587-FB058F9A6080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682DD4F-953A-4711-AC28-D65F54B6E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,42 @@
   </si>
   <si>
     <t>1000화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B53" si="0">B3*10</f>
+        <f t="shared" ref="B4:B61" si="0">B3*10</f>
         <v>1.0000000000000001E+98</v>
       </c>
       <c r="C4" t="s">
@@ -1889,6 +1925,158 @@
       <c r="E53" s="1" t="str">
         <f>VLOOKUP(A53,abilvalue!C:E,3,FALSE)</f>
         <v>0.52,0.4,0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>VLOOKUP(A54,abilvalue!C:E,3,FALSE)</f>
+        <v>0.53,0.41,0.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>VLOOKUP(A55,abilvalue!C:E,3,FALSE)</f>
+        <v>0.54,0.42,0.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>VLOOKUP(A56,abilvalue!C:E,3,FALSE)</f>
+        <v>0.55,0.43,0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>VLOOKUP(A57,abilvalue!C:E,3,FALSE)</f>
+        <v>0.56,0.44,0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>VLOOKUP(A58,abilvalue!C:E,3,FALSE)</f>
+        <v>0.57,0.45,0.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+153</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>VLOOKUP(A59,abilvalue!C:E,3,FALSE)</f>
+        <v>0.58,0.46,0.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+154</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>VLOOKUP(A60,abilvalue!C:E,3,FALSE)</f>
+        <v>0.59,0.47,0.29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>VLOOKUP(A61,abilvalue!C:E,3,FALSE)</f>
+        <v>0.6,0.48,0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1900,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O59"/>
+  <dimension ref="C5:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2923,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:E59" si="5">F36&amp;","&amp;G36&amp;","&amp;H36</f>
+        <f t="shared" ref="E36:E65" si="5">F36&amp;","&amp;G36&amp;","&amp;H36</f>
         <v>0.31,0.19,0.01</v>
       </c>
       <c r="F36">
@@ -3010,7 +3198,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H59" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H65" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3165,6 +3353,20 @@
         <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="L42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" s="3">
+        <v>152</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" ref="N42" si="9">POWER(10,M42)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="O42" s="4" t="str">
+        <f t="shared" ref="O42" si="10">RIGHT(N42,M42)</f>
+        <v>1E+152</v>
+      </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43">
@@ -3339,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="5"/>
@@ -3363,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="5"/>
@@ -3387,7 +3589,7 @@
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="5"/>
@@ -3411,7 +3613,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="5"/>
@@ -3434,6 +3636,9 @@
       <c r="C54">
         <v>48</v>
       </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
       <c r="E54" t="str">
         <f t="shared" si="5"/>
         <v>0.49,0.37,0.19</v>
@@ -3455,6 +3660,9 @@
       <c r="C55">
         <v>49</v>
       </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
       <c r="E55" t="str">
         <f t="shared" si="5"/>
         <v>0.5,0.38,0.2</v>
@@ -3476,6 +3684,9 @@
       <c r="C56">
         <v>50</v>
       </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
       <c r="E56" t="str">
         <f t="shared" si="5"/>
         <v>0.51,0.39,0.21</v>
@@ -3497,6 +3708,9 @@
       <c r="C57">
         <v>51</v>
       </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
       <c r="E57" t="str">
         <f t="shared" si="5"/>
         <v>0.52,0.4,0.22</v>
@@ -3518,6 +3732,9 @@
       <c r="C58">
         <v>52</v>
       </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
       <c r="E58" t="str">
         <f t="shared" si="5"/>
         <v>0.53,0.41,0.23</v>
@@ -3539,6 +3756,9 @@
       <c r="C59">
         <v>53</v>
       </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
       <c r="E59" t="str">
         <f t="shared" si="5"/>
         <v>0.54,0.42,0.24</v>
@@ -3554,6 +3774,150 @@
       <c r="H59">
         <f t="shared" si="6"/>
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="5"/>
+        <v>0.55,0.43,0.25</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60:G60" si="11">ROUNDUP(F59+0.01,5)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="11"/>
+        <v>0.43</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="5"/>
+        <v>0.56,0.44,0.26</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:G61" si="12">ROUNDUP(F60+0.01,5)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="12"/>
+        <v>0.44</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="5"/>
+        <v>0.57,0.45,0.27</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:G62" si="13">ROUNDUP(F61+0.01,5)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="13"/>
+        <v>0.45</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="5"/>
+        <v>0.58,0.46,0.28</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:G63" si="14">ROUNDUP(F62+0.01,5)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="14"/>
+        <v>0.46</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="5"/>
+        <v>0.59,0.47,0.29</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:G64" si="15">ROUNDUP(F63+0.01,5)</f>
+        <v>0.59</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="15"/>
+        <v>0.47</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="5"/>
+        <v>0.6,0.48,0.3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:G65" si="16">ROUNDUP(F64+0.01,5)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="16"/>
+        <v>0.48</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682DD4F-953A-4711-AC28-D65F54B6E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1832F2-202A-4736-B722-68249D535532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,30 @@
   </si>
   <si>
     <t>1000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B61" si="0">B3*10</f>
+        <f t="shared" ref="B4:B65" si="0">B3*10</f>
         <v>1.0000000000000001E+98</v>
       </c>
       <c r="C4" t="s">
@@ -2077,6 +2101,82 @@
       <c r="E61" s="1" t="str">
         <f>VLOOKUP(A61,abilvalue!C:E,3,FALSE)</f>
         <v>0.6,0.48,0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>VLOOKUP(A62,abilvalue!C:E,3,FALSE)</f>
+        <v>0.61,0.49,0.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>VLOOKUP(A63,abilvalue!C:E,3,FALSE)</f>
+        <v>0.62,0.5,0.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>VLOOKUP(A64,abilvalue!C:E,3,FALSE)</f>
+        <v>0.63,0.51,0.33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+159</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>VLOOKUP(A65,abilvalue!C:E,3,FALSE)</f>
+        <v>0.64,0.52,0.34</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O65"/>
+  <dimension ref="C5:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D61"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3198,7 +3298,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H65" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H69" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3391,6 +3491,20 @@
         <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
+      <c r="L43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="3">
+        <v>156</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" ref="N43:N44" si="11">POWER(10,M43)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="O43" s="4" t="str">
+        <f t="shared" ref="O43:O44" si="12">RIGHT(N43,M43)</f>
+        <v>1E+156</v>
+      </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44">
@@ -3415,6 +3529,20 @@
         <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
+      <c r="L44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" s="3">
+        <v>160</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="11"/>
+        <v>1E+160</v>
+      </c>
+      <c r="O44" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+160</v>
+      </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45">
@@ -3788,11 +3916,11 @@
         <v>0.55,0.43,0.25</v>
       </c>
       <c r="F60">
-        <f t="shared" ref="F60:G60" si="11">ROUNDUP(F59+0.01,5)</f>
+        <f t="shared" ref="F60:G60" si="13">ROUNDUP(F59+0.01,5)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="G60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.43</v>
       </c>
       <c r="H60">
@@ -3812,11 +3940,11 @@
         <v>0.56,0.44,0.26</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:G61" si="12">ROUNDUP(F60+0.01,5)</f>
+        <f t="shared" ref="F61:G61" si="14">ROUNDUP(F60+0.01,5)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.44</v>
       </c>
       <c r="H61">
@@ -3836,11 +3964,11 @@
         <v>0.57,0.45,0.27</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:G62" si="13">ROUNDUP(F61+0.01,5)</f>
+        <f t="shared" ref="F62:G62" si="15">ROUNDUP(F61+0.01,5)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="G62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.45</v>
       </c>
       <c r="H62">
@@ -3860,11 +3988,11 @@
         <v>0.58,0.46,0.28</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:G63" si="14">ROUNDUP(F62+0.01,5)</f>
+        <f t="shared" ref="F63:G63" si="16">ROUNDUP(F62+0.01,5)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="G63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46</v>
       </c>
       <c r="H63">
@@ -3884,11 +4012,11 @@
         <v>0.59,0.47,0.29</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:G64" si="15">ROUNDUP(F63+0.01,5)</f>
+        <f t="shared" ref="F64:G64" si="17">ROUNDUP(F63+0.01,5)</f>
         <v>0.59</v>
       </c>
       <c r="G64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47</v>
       </c>
       <c r="H64">
@@ -3908,16 +4036,112 @@
         <v>0.6,0.48,0.3</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:G65" si="16">ROUNDUP(F64+0.01,5)</f>
+        <f t="shared" ref="F65:G65" si="18">ROUNDUP(F64+0.01,5)</f>
         <v>0.6</v>
       </c>
       <c r="G65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.48</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E69" si="19">F66&amp;","&amp;G66&amp;","&amp;H66</f>
+        <v>0.61,0.49,0.31</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:G66" si="20">ROUNDUP(F65+0.01,5)</f>
+        <v>0.61</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="20"/>
+        <v>0.49</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="19"/>
+        <v>0.62,0.5,0.32</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:G67" si="21">ROUNDUP(F66+0.01,5)</f>
+        <v>0.62</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="19"/>
+        <v>0.63,0.51,0.33</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:G68" si="22">ROUNDUP(F67+0.01,5)</f>
+        <v>0.63</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="22"/>
+        <v>0.51</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="19"/>
+        <v>0.64,0.52,0.34</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:G69" si="23">ROUNDUP(F68+0.01,5)</f>
+        <v>0.64</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="23"/>
+        <v>0.52</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1832F2-202A-4736-B722-68249D535532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AFB61-F4F7-45EB-B3DE-9740624E257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,30 @@
   </si>
   <si>
     <t>1000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B65" si="0">B3*10</f>
+        <f t="shared" ref="B4:B67" si="0">B3*10</f>
         <v>1.0000000000000001E+98</v>
       </c>
       <c r="C4" t="s">
@@ -2177,6 +2201,82 @@
       <c r="E65" s="1" t="str">
         <f>VLOOKUP(A65,abilvalue!C:E,3,FALSE)</f>
         <v>0.64,0.52,0.34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>VLOOKUP(A66,abilvalue!C:E,3,FALSE)</f>
+        <v>0.65,0.53,0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>VLOOKUP(A67,abilvalue!C:E,3,FALSE)</f>
+        <v>0.66,0.54,0.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" ref="B68:B69" si="1">B67*10</f>
+        <v>1.0000000000000001E+162</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>VLOOKUP(A68,abilvalue!C:E,3,FALSE)</f>
+        <v>0.67,0.55,0.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>VLOOKUP(A69,abilvalue!C:E,3,FALSE)</f>
+        <v>0.68,0.56,0.38</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O69"/>
+  <dimension ref="C5:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3298,7 +3398,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H69" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H73" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3567,6 +3667,20 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45" s="3">
+        <v>164</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" ref="N45:N46" si="13">POWER(10,M45)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="O45" s="4" t="str">
+        <f t="shared" ref="O45:O46" si="14">RIGHT(N45,M45)</f>
+        <v>1E+164</v>
+      </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46">
@@ -3591,6 +3705,20 @@
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
+      <c r="L46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M46" s="3">
+        <v>168</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="O46" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+168</v>
+      </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47">
@@ -3916,11 +4044,11 @@
         <v>0.55,0.43,0.25</v>
       </c>
       <c r="F60">
-        <f t="shared" ref="F60:G60" si="13">ROUNDUP(F59+0.01,5)</f>
+        <f t="shared" ref="F60:G60" si="15">ROUNDUP(F59+0.01,5)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="G60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43</v>
       </c>
       <c r="H60">
@@ -3940,11 +4068,11 @@
         <v>0.56,0.44,0.26</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:G61" si="14">ROUNDUP(F60+0.01,5)</f>
+        <f t="shared" ref="F61:G61" si="16">ROUNDUP(F60+0.01,5)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="H61">
@@ -3964,11 +4092,11 @@
         <v>0.57,0.45,0.27</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:G62" si="15">ROUNDUP(F61+0.01,5)</f>
+        <f t="shared" ref="F62:G62" si="17">ROUNDUP(F61+0.01,5)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="G62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
       <c r="H62">
@@ -3988,11 +4116,11 @@
         <v>0.58,0.46,0.28</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:G63" si="16">ROUNDUP(F62+0.01,5)</f>
+        <f t="shared" ref="F63:G63" si="18">ROUNDUP(F62+0.01,5)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="G63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="H63">
@@ -4012,11 +4140,11 @@
         <v>0.59,0.47,0.29</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:G64" si="17">ROUNDUP(F63+0.01,5)</f>
+        <f t="shared" ref="F64:G64" si="19">ROUNDUP(F63+0.01,5)</f>
         <v>0.59</v>
       </c>
       <c r="G64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.47</v>
       </c>
       <c r="H64">
@@ -4036,11 +4164,11 @@
         <v>0.6,0.48,0.3</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:G65" si="18">ROUNDUP(F64+0.01,5)</f>
+        <f t="shared" ref="F65:G65" si="20">ROUNDUP(F64+0.01,5)</f>
         <v>0.6</v>
       </c>
       <c r="G65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.48</v>
       </c>
       <c r="H65">
@@ -4056,15 +4184,15 @@
         <v>124</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E69" si="19">F66&amp;","&amp;G66&amp;","&amp;H66</f>
+        <f t="shared" ref="E66:E69" si="21">F66&amp;","&amp;G66&amp;","&amp;H66</f>
         <v>0.61,0.49,0.31</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:G66" si="20">ROUNDUP(F65+0.01,5)</f>
+        <f t="shared" ref="F66:G66" si="22">ROUNDUP(F65+0.01,5)</f>
         <v>0.61</v>
       </c>
       <c r="G66">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.49</v>
       </c>
       <c r="H66">
@@ -4080,15 +4208,15 @@
         <v>125</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.62,0.5,0.32</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:G67" si="21">ROUNDUP(F66+0.01,5)</f>
+        <f t="shared" ref="F67:G67" si="23">ROUNDUP(F66+0.01,5)</f>
         <v>0.62</v>
       </c>
       <c r="G67">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="H67">
@@ -4104,15 +4232,15 @@
         <v>126</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.63,0.51,0.33</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:G68" si="22">ROUNDUP(F67+0.01,5)</f>
+        <f t="shared" ref="F68:G68" si="24">ROUNDUP(F67+0.01,5)</f>
         <v>0.63</v>
       </c>
       <c r="G68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.51</v>
       </c>
       <c r="H68">
@@ -4128,20 +4256,116 @@
         <v>127</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.64,0.52,0.34</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:G69" si="23">ROUNDUP(F68+0.01,5)</f>
+        <f t="shared" ref="F69:G69" si="25">ROUNDUP(F68+0.01,5)</f>
         <v>0.64</v>
       </c>
       <c r="G69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.52</v>
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ref="E70:E73" si="26">F70&amp;","&amp;G70&amp;","&amp;H70</f>
+        <v>0.65,0.53,0.35</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:G70" si="27">ROUNDUP(F69+0.01,5)</f>
+        <v>0.65</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="27"/>
+        <v>0.53</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="26"/>
+        <v>0.66,0.54,0.36</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:G71" si="28">ROUNDUP(F70+0.01,5)</f>
+        <v>0.66</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="28"/>
+        <v>0.54</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>66</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="26"/>
+        <v>0.67,0.55,0.37</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:G72" si="29">ROUNDUP(F71+0.01,5)</f>
+        <v>0.67</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="29"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="26"/>
+        <v>0.68,0.56,0.38</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:G73" si="30">ROUNDUP(F72+0.01,5)</f>
+        <v>0.68</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="30"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AFB61-F4F7-45EB-B3DE-9740624E257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1895D-06A0-4311-964A-0BE5FCE9EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,6 +565,26 @@
   </si>
   <si>
     <t>1000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2212,7 +2228,7 @@
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>101</v>
@@ -2231,7 +2247,7 @@
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>101</v>
@@ -2246,11 +2262,11 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B69" si="1">B67*10</f>
+        <f t="shared" ref="B68:B73" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>101</v>
@@ -2269,7 +2285,7 @@
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>101</v>
@@ -2277,6 +2293,82 @@
       <c r="E69" s="1" t="str">
         <f>VLOOKUP(A69,abilvalue!C:E,3,FALSE)</f>
         <v>0.68,0.56,0.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>VLOOKUP(A70,abilvalue!C:E,3,FALSE)</f>
+        <v>0.69,0.57,0.39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>VLOOKUP(A71,abilvalue!C:E,3,FALSE)</f>
+        <v>0.7,0.58,0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+166</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>VLOOKUP(A72,abilvalue!C:E,3,FALSE)</f>
+        <v>0.71,0.59,0.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>VLOOKUP(A73,abilvalue!C:E,3,FALSE)</f>
+        <v>0.72,0.6,0.42</v>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O73"/>
+  <dimension ref="C5:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3398,7 +3490,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H73" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H77" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3668,7 +3760,7 @@
         <v>0.1</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M45" s="3">
         <v>164</v>
@@ -3706,7 +3798,7 @@
         <v>0.11</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M46" s="3">
         <v>168</v>
@@ -4277,7 +4369,7 @@
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E73" si="26">F70&amp;","&amp;G70&amp;","&amp;H70</f>
@@ -4301,7 +4393,7 @@
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="26"/>
@@ -4325,7 +4417,7 @@
         <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="26"/>
@@ -4349,7 +4441,7 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="26"/>
@@ -4366,6 +4458,102 @@
       <c r="H73">
         <f t="shared" si="6"/>
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ref="E74:E77" si="31">F74&amp;","&amp;G74&amp;","&amp;H74</f>
+        <v>0.69,0.57,0.39</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74:G74" si="32">ROUNDUP(F73+0.01,5)</f>
+        <v>0.69</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="32"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="31"/>
+        <v>0.7,0.58,0.4</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:G75" si="33">ROUNDUP(F74+0.01,5)</f>
+        <v>0.7</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="33"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="31"/>
+        <v>0.71,0.59,0.41</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76:G76" si="34">ROUNDUP(F75+0.01,5)</f>
+        <v>0.71</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="34"/>
+        <v>0.59</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="31"/>
+        <v>0.72,0.6,0.42</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:G77" si="35">ROUNDUP(F76+0.01,5)</f>
+        <v>0.72</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="35"/>
+        <v>0.6</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1895D-06A0-4311-964A-0BE5FCE9EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17016193-75D6-49AE-9BBD-3A857DCE63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="142">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,22 @@
   </si>
   <si>
     <t>1000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2262,7 +2278,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B73" si="1">B67*10</f>
+        <f t="shared" ref="B68:B77" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -2369,6 +2385,86 @@
       <c r="E73" s="1" t="str">
         <f>VLOOKUP(A73,abilvalue!C:E,3,FALSE)</f>
         <v>0.72,0.6,0.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74,abilvalue!C:E,2,FALSE)</f>
+        <v>1격</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>VLOOKUP(A74,abilvalue!C:E,3,FALSE)</f>
+        <v>0.73,0.61,0.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(A75,abilvalue!C:E,2,FALSE)</f>
+        <v>10격</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>VLOOKUP(A75,abilvalue!C:E,3,FALSE)</f>
+        <v>0.74,0.62,0.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(A76,abilvalue!C:E,2,FALSE)</f>
+        <v>100격</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>VLOOKUP(A76,abilvalue!C:E,3,FALSE)</f>
+        <v>0.75,0.63,0.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77,abilvalue!C:E,2,FALSE)</f>
+        <v>1000격</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>VLOOKUP(A77,abilvalue!C:E,3,FALSE)</f>
+        <v>0.76,0.64,0.46</v>
       </c>
     </row>
   </sheetData>
@@ -2380,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O77"/>
+  <dimension ref="C5:O81"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3490,7 +3586,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H77" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H81" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -4554,6 +4650,102 @@
       <c r="H77">
         <f t="shared" si="6"/>
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ref="E78:E81" si="36">F78&amp;","&amp;G78&amp;","&amp;H78</f>
+        <v>0.73,0.61,0.43</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78:G78" si="37">ROUNDUP(F77+0.01,5)</f>
+        <v>0.73</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="37"/>
+        <v>0.61</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="36"/>
+        <v>0.74,0.62,0.44</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:G79" si="38">ROUNDUP(F78+0.01,5)</f>
+        <v>0.74</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="38"/>
+        <v>0.62</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="36"/>
+        <v>0.75,0.63,0.45</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:G80" si="39">ROUNDUP(F79+0.01,5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="39"/>
+        <v>0.63</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="36"/>
+        <v>0.76,0.64,0.46</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81:G81" si="40">ROUNDUP(F80+0.01,5)</f>
+        <v>0.76</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="40"/>
+        <v>0.64</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17016193-75D6-49AE-9BBD-3A857DCE63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708B3C0-116D-4546-B0C0-33F96C3BEE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +597,50 @@
   </si>
   <si>
     <t>1000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,11 +1040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2244,7 +2284,7 @@
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>101</v>
@@ -2263,7 +2303,7 @@
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>101</v>
@@ -2278,11 +2318,11 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B77" si="1">B67*10</f>
+        <f t="shared" ref="B68:B85" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>101</v>
@@ -2301,7 +2341,7 @@
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>101</v>
@@ -2320,7 +2360,7 @@
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>101</v>
@@ -2339,7 +2379,7 @@
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>101</v>
@@ -2358,7 +2398,7 @@
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>101</v>
@@ -2377,7 +2417,7 @@
         <v>1E+167</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>101</v>
@@ -2465,6 +2505,166 @@
       <c r="E77" s="1" t="str">
         <f>VLOOKUP(A77,abilvalue!C:E,3,FALSE)</f>
         <v>0.76,0.64,0.46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78,abilvalue!C:E,2,FALSE)</f>
+        <v>1창</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>VLOOKUP(A78,abilvalue!C:E,3,FALSE)</f>
+        <v>0.77,0.65,0.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(A79,abilvalue!C:E,2,FALSE)</f>
+        <v>10창</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>VLOOKUP(A79,abilvalue!C:E,3,FALSE)</f>
+        <v>0.78,0.66,0.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80,abilvalue!C:E,2,FALSE)</f>
+        <v>100창</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>VLOOKUP(A80,abilvalue!C:E,3,FALSE)</f>
+        <v>0.79,0.67,0.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="C81" t="str">
+        <f>VLOOKUP(A81,abilvalue!C:E,2,FALSE)</f>
+        <v>1000창</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>VLOOKUP(A81,abilvalue!C:E,3,FALSE)</f>
+        <v>0.8,0.68,0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+176</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(A82,abilvalue!C:E,2,FALSE)</f>
+        <v>1공</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>VLOOKUP(A82,abilvalue!C:E,3,FALSE)</f>
+        <v>0.81,0.69,0.51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+177</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(A83,abilvalue!C:E,2,FALSE)</f>
+        <v>10공</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>VLOOKUP(A83,abilvalue!C:E,3,FALSE)</f>
+        <v>0.82,0.7,0.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(A84,abilvalue!C:E,2,FALSE)</f>
+        <v>100공</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>VLOOKUP(A84,abilvalue!C:E,3,FALSE)</f>
+        <v>0.83,0.71,0.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(A85,abilvalue!C:E,2,FALSE)</f>
+        <v>1000공</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>VLOOKUP(A85,abilvalue!C:E,3,FALSE)</f>
+        <v>0.84,0.72,0.54</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O81"/>
+  <dimension ref="C5:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3586,7 +3786,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H81" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H89" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3856,7 +4056,7 @@
         <v>0.1</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M45" s="3">
         <v>164</v>
@@ -3894,7 +4094,7 @@
         <v>0.11</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M46" s="3">
         <v>168</v>
@@ -3931,6 +4131,20 @@
         <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
+      <c r="L47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="3">
+        <v>172</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" ref="N47:N48" si="15">POWER(10,M47)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="O47" s="4" t="str">
+        <f t="shared" ref="O47:O48" si="16">RIGHT(N47,M47)</f>
+        <v>1E+172</v>
+      </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48">
@@ -3955,6 +4169,20 @@
         <f t="shared" si="6"/>
         <v>0.13</v>
       </c>
+      <c r="L48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M48" s="3">
+        <v>176</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="15"/>
+        <v>1E+176</v>
+      </c>
+      <c r="O48" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+176</v>
+      </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49">
@@ -4232,11 +4460,11 @@
         <v>0.55,0.43,0.25</v>
       </c>
       <c r="F60">
-        <f t="shared" ref="F60:G60" si="15">ROUNDUP(F59+0.01,5)</f>
+        <f t="shared" ref="F60:G60" si="17">ROUNDUP(F59+0.01,5)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="G60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.43</v>
       </c>
       <c r="H60">
@@ -4256,11 +4484,11 @@
         <v>0.56,0.44,0.26</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:G61" si="16">ROUNDUP(F60+0.01,5)</f>
+        <f t="shared" ref="F61:G61" si="18">ROUNDUP(F60+0.01,5)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.44</v>
       </c>
       <c r="H61">
@@ -4280,11 +4508,11 @@
         <v>0.57,0.45,0.27</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:G62" si="17">ROUNDUP(F61+0.01,5)</f>
+        <f t="shared" ref="F62:G62" si="19">ROUNDUP(F61+0.01,5)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="G62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.45</v>
       </c>
       <c r="H62">
@@ -4304,11 +4532,11 @@
         <v>0.58,0.46,0.28</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:G63" si="18">ROUNDUP(F62+0.01,5)</f>
+        <f t="shared" ref="F63:G63" si="20">ROUNDUP(F62+0.01,5)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="G63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.46</v>
       </c>
       <c r="H63">
@@ -4328,11 +4556,11 @@
         <v>0.59,0.47,0.29</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:G64" si="19">ROUNDUP(F63+0.01,5)</f>
+        <f t="shared" ref="F64:G64" si="21">ROUNDUP(F63+0.01,5)</f>
         <v>0.59</v>
       </c>
       <c r="G64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.47</v>
       </c>
       <c r="H64">
@@ -4352,11 +4580,11 @@
         <v>0.6,0.48,0.3</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:G65" si="20">ROUNDUP(F64+0.01,5)</f>
+        <f t="shared" ref="F65:G65" si="22">ROUNDUP(F64+0.01,5)</f>
         <v>0.6</v>
       </c>
       <c r="G65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.48</v>
       </c>
       <c r="H65">
@@ -4372,15 +4600,15 @@
         <v>124</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E69" si="21">F66&amp;","&amp;G66&amp;","&amp;H66</f>
+        <f t="shared" ref="E66:E69" si="23">F66&amp;","&amp;G66&amp;","&amp;H66</f>
         <v>0.61,0.49,0.31</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:G66" si="22">ROUNDUP(F65+0.01,5)</f>
+        <f t="shared" ref="F66:G66" si="24">ROUNDUP(F65+0.01,5)</f>
         <v>0.61</v>
       </c>
       <c r="G66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.49</v>
       </c>
       <c r="H66">
@@ -4396,15 +4624,15 @@
         <v>125</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.62,0.5,0.32</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:G67" si="23">ROUNDUP(F66+0.01,5)</f>
+        <f t="shared" ref="F67:G67" si="25">ROUNDUP(F66+0.01,5)</f>
         <v>0.62</v>
       </c>
       <c r="G67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="H67">
@@ -4420,15 +4648,15 @@
         <v>126</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.63,0.51,0.33</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:G68" si="24">ROUNDUP(F67+0.01,5)</f>
+        <f t="shared" ref="F68:G68" si="26">ROUNDUP(F67+0.01,5)</f>
         <v>0.63</v>
       </c>
       <c r="G68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.51</v>
       </c>
       <c r="H68">
@@ -4444,15 +4672,15 @@
         <v>127</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.64,0.52,0.34</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:G69" si="25">ROUNDUP(F68+0.01,5)</f>
+        <f t="shared" ref="F69:G69" si="27">ROUNDUP(F68+0.01,5)</f>
         <v>0.64</v>
       </c>
       <c r="G69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.52</v>
       </c>
       <c r="H69">
@@ -4465,18 +4693,18 @@
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ref="E70:E73" si="26">F70&amp;","&amp;G70&amp;","&amp;H70</f>
+        <f t="shared" ref="E70:E73" si="28">F70&amp;","&amp;G70&amp;","&amp;H70</f>
         <v>0.65,0.53,0.35</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:G70" si="27">ROUNDUP(F69+0.01,5)</f>
+        <f t="shared" ref="F70:G70" si="29">ROUNDUP(F69+0.01,5)</f>
         <v>0.65</v>
       </c>
       <c r="G70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.53</v>
       </c>
       <c r="H70">
@@ -4489,18 +4717,18 @@
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.66,0.54,0.36</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:G71" si="28">ROUNDUP(F70+0.01,5)</f>
+        <f t="shared" ref="F71:G71" si="30">ROUNDUP(F70+0.01,5)</f>
         <v>0.66</v>
       </c>
       <c r="G71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.54</v>
       </c>
       <c r="H71">
@@ -4513,18 +4741,18 @@
         <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.67,0.55,0.37</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:G72" si="29">ROUNDUP(F71+0.01,5)</f>
+        <f t="shared" ref="F72:G72" si="31">ROUNDUP(F71+0.01,5)</f>
         <v>0.67</v>
       </c>
       <c r="G72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H72">
@@ -4537,18 +4765,18 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68,0.56,0.38</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:G73" si="30">ROUNDUP(F72+0.01,5)</f>
+        <f t="shared" ref="F73:G73" si="32">ROUNDUP(F72+0.01,5)</f>
         <v>0.68</v>
       </c>
       <c r="G73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="H73">
@@ -4561,18 +4789,18 @@
         <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ref="E74:E77" si="31">F74&amp;","&amp;G74&amp;","&amp;H74</f>
+        <f t="shared" ref="E74:E77" si="33">F74&amp;","&amp;G74&amp;","&amp;H74</f>
         <v>0.69,0.57,0.39</v>
       </c>
       <c r="F74">
-        <f t="shared" ref="F74:G74" si="32">ROUNDUP(F73+0.01,5)</f>
+        <f t="shared" ref="F74:G74" si="34">ROUNDUP(F73+0.01,5)</f>
         <v>0.69</v>
       </c>
       <c r="G74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H74">
@@ -4585,18 +4813,18 @@
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.7,0.58,0.4</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:G75" si="33">ROUNDUP(F74+0.01,5)</f>
+        <f t="shared" ref="F75:G75" si="35">ROUNDUP(F74+0.01,5)</f>
         <v>0.7</v>
       </c>
       <c r="G75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="H75">
@@ -4609,18 +4837,18 @@
         <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.71,0.59,0.41</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76:G76" si="34">ROUNDUP(F75+0.01,5)</f>
+        <f t="shared" ref="F76:G76" si="36">ROUNDUP(F75+0.01,5)</f>
         <v>0.71</v>
       </c>
       <c r="G76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.59</v>
       </c>
       <c r="H76">
@@ -4633,18 +4861,18 @@
         <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.72,0.6,0.42</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:G77" si="35">ROUNDUP(F76+0.01,5)</f>
+        <f t="shared" ref="F77:G77" si="37">ROUNDUP(F76+0.01,5)</f>
         <v>0.72</v>
       </c>
       <c r="G77">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
       <c r="H77">
@@ -4657,18 +4885,18 @@
         <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" ref="E78:E81" si="36">F78&amp;","&amp;G78&amp;","&amp;H78</f>
+        <f t="shared" ref="E78:E81" si="38">F78&amp;","&amp;G78&amp;","&amp;H78</f>
         <v>0.73,0.61,0.43</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:G78" si="37">ROUNDUP(F77+0.01,5)</f>
+        <f t="shared" ref="F78:G78" si="39">ROUNDUP(F77+0.01,5)</f>
         <v>0.73</v>
       </c>
       <c r="G78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.61</v>
       </c>
       <c r="H78">
@@ -4681,18 +4909,18 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.74,0.62,0.44</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:G79" si="38">ROUNDUP(F78+0.01,5)</f>
+        <f t="shared" ref="F79:G79" si="40">ROUNDUP(F78+0.01,5)</f>
         <v>0.74</v>
       </c>
       <c r="G79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.62</v>
       </c>
       <c r="H79">
@@ -4705,18 +4933,18 @@
         <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.75,0.63,0.45</v>
       </c>
       <c r="F80">
-        <f t="shared" ref="F80:G80" si="39">ROUNDUP(F79+0.01,5)</f>
+        <f t="shared" ref="F80:G80" si="41">ROUNDUP(F79+0.01,5)</f>
         <v>0.75</v>
       </c>
       <c r="G80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.63</v>
       </c>
       <c r="H80">
@@ -4729,23 +4957,215 @@
         <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.76,0.64,0.46</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:G81" si="40">ROUNDUP(F80+0.01,5)</f>
+        <f t="shared" ref="F81:G81" si="42">ROUNDUP(F80+0.01,5)</f>
         <v>0.76</v>
       </c>
       <c r="G81">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.64</v>
       </c>
       <c r="H81">
         <f t="shared" si="6"/>
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ref="E82:E89" si="43">F82&amp;","&amp;G82&amp;","&amp;H82</f>
+        <v>0.77,0.65,0.47</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82:G82" si="44">ROUNDUP(F81+0.01,5)</f>
+        <v>0.77</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="44"/>
+        <v>0.65</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>77</v>
+      </c>
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="43"/>
+        <v>0.78,0.66,0.48</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:G83" si="45">ROUNDUP(F82+0.01,5)</f>
+        <v>0.78</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="45"/>
+        <v>0.66</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>78</v>
+      </c>
+      <c r="D84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="43"/>
+        <v>0.79,0.67,0.49</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:G84" si="46">ROUNDUP(F83+0.01,5)</f>
+        <v>0.79</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="46"/>
+        <v>0.67</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="43"/>
+        <v>0.8,0.68,0.5</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85:G85" si="47">ROUNDUP(F84+0.01,5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="47"/>
+        <v>0.68</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="43"/>
+        <v>0.81,0.69,0.51</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:G86" si="48">ROUNDUP(F85+0.01,5)</f>
+        <v>0.81</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="48"/>
+        <v>0.69</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="43"/>
+        <v>0.82,0.7,0.52</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:G87" si="49">ROUNDUP(F86+0.01,5)</f>
+        <v>0.82</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="49"/>
+        <v>0.7</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>82</v>
+      </c>
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="43"/>
+        <v>0.83,0.71,0.53</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:G88" si="50">ROUNDUP(F87+0.01,5)</f>
+        <v>0.83</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="50"/>
+        <v>0.71</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>83</v>
+      </c>
+      <c r="D89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="43"/>
+        <v>0.84,0.72,0.54</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89:G89" si="51">ROUNDUP(F88+0.01,5)</f>
+        <v>0.84</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="51"/>
+        <v>0.72</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708B3C0-116D-4546-B0C0-33F96C3BEE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2BA12-C9A6-423D-B33F-8A7F65944A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,38 @@
   </si>
   <si>
     <t>1000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,11 +1072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B85" si="1">B67*10</f>
+        <f t="shared" ref="B68:B93" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -2665,6 +2697,166 @@
       <c r="E85" s="1" t="str">
         <f>VLOOKUP(A85,abilvalue!C:E,3,FALSE)</f>
         <v>0.84,0.72,0.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(A86,abilvalue!C:E,2,FALSE)</f>
+        <v>1채</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>VLOOKUP(A86,abilvalue!C:E,3,FALSE)</f>
+        <v>0.85,0.73,0.55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(A87,abilvalue!C:E,2,FALSE)</f>
+        <v>10채</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>VLOOKUP(A87,abilvalue!C:E,3,FALSE)</f>
+        <v>0.86,0.74,0.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(A88,abilvalue!C:E,2,FALSE)</f>
+        <v>100채</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>VLOOKUP(A88,abilvalue!C:E,3,FALSE)</f>
+        <v>0.87,0.75,0.57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(A89,abilvalue!C:E,2,FALSE)</f>
+        <v>1000채</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>VLOOKUP(A89,abilvalue!C:E,3,FALSE)</f>
+        <v>0.88,0.76,0.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+184</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(A90,abilvalue!C:E,2,FALSE)</f>
+        <v>1연</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>VLOOKUP(A90,abilvalue!C:E,3,FALSE)</f>
+        <v>0.89,0.77,0.59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(A91,abilvalue!C:E,2,FALSE)</f>
+        <v>10연</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>VLOOKUP(A91,abilvalue!C:E,3,FALSE)</f>
+        <v>0.9,0.78,0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(A92,abilvalue!C:E,2,FALSE)</f>
+        <v>100연</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>VLOOKUP(A92,abilvalue!C:E,3,FALSE)</f>
+        <v>0.91,0.79,0.61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(A93,abilvalue!C:E,2,FALSE)</f>
+        <v>1000연</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>VLOOKUP(A93,abilvalue!C:E,3,FALSE)</f>
+        <v>0.92,0.8,0.62</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O89"/>
+  <dimension ref="C5:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3786,7 +3978,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H89" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H97" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -5166,6 +5358,198 @@
       <c r="H89">
         <f t="shared" si="6"/>
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" ref="E90:E97" si="52">F90&amp;","&amp;G90&amp;","&amp;H90</f>
+        <v>0.85,0.73,0.55</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:G90" si="53">ROUNDUP(F89+0.01,5)</f>
+        <v>0.85</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="53"/>
+        <v>0.73</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="52"/>
+        <v>0.86,0.74,0.56</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ref="F91:G91" si="54">ROUNDUP(F90+0.01,5)</f>
+        <v>0.86</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="54"/>
+        <v>0.74</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>86</v>
+      </c>
+      <c r="D92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="52"/>
+        <v>0.87,0.75,0.57</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92:G92" si="55">ROUNDUP(F91+0.01,5)</f>
+        <v>0.87</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="55"/>
+        <v>0.75</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="52"/>
+        <v>0.88,0.76,0.58</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:G93" si="56">ROUNDUP(F92+0.01,5)</f>
+        <v>0.88</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="56"/>
+        <v>0.76</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>88</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="52"/>
+        <v>0.89,0.77,0.59</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94:G94" si="57">ROUNDUP(F93+0.01,5)</f>
+        <v>0.89</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="57"/>
+        <v>0.77</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="52"/>
+        <v>0.9,0.78,0.6</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95:G95" si="58">ROUNDUP(F94+0.01,5)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="58"/>
+        <v>0.78</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="52"/>
+        <v>0.91,0.79,0.61</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ref="F96:G96" si="59">ROUNDUP(F95+0.01,5)</f>
+        <v>0.91</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="59"/>
+        <v>0.79</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>91</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="52"/>
+        <v>0.92,0.8,0.62</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ref="F97:G97" si="60">ROUNDUP(F96+0.01,5)</f>
+        <v>0.92</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="60"/>
+        <v>0.8</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2BA12-C9A6-423D-B33F-8A7F65944A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039CF6A-741A-45CF-91BD-FBA2CF5FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,19 +660,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000연</t>
+    <t>1피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,11 +1088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2350,7 +2366,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B93" si="1">B67*10</f>
+        <f t="shared" ref="B68:B97" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -2789,7 +2805,7 @@
       </c>
       <c r="C90" t="str">
         <f>VLOOKUP(A90,abilvalue!C:E,2,FALSE)</f>
-        <v>1연</v>
+        <v>1피</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>101</v>
@@ -2809,7 +2825,7 @@
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(A91,abilvalue!C:E,2,FALSE)</f>
-        <v>10연</v>
+        <v>10피</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>101</v>
@@ -2829,7 +2845,7 @@
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP(A92,abilvalue!C:E,2,FALSE)</f>
-        <v>100연</v>
+        <v>100피</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>101</v>
@@ -2849,7 +2865,7 @@
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(A93,abilvalue!C:E,2,FALSE)</f>
-        <v>1000연</v>
+        <v>1000피</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>101</v>
@@ -2857,6 +2873,86 @@
       <c r="E93" s="1" t="str">
         <f>VLOOKUP(A93,abilvalue!C:E,3,FALSE)</f>
         <v>0.92,0.8,0.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(A94,abilvalue!C:E,2,FALSE)</f>
+        <v>1동</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>VLOOKUP(A94,abilvalue!C:E,3,FALSE)</f>
+        <v>0.93,0.81,0.63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(A95,abilvalue!C:E,2,FALSE)</f>
+        <v>10동</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>VLOOKUP(A95,abilvalue!C:E,3,FALSE)</f>
+        <v>0.94,0.82,0.64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(A96,abilvalue!C:E,2,FALSE)</f>
+        <v>100동</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>VLOOKUP(A96,abilvalue!C:E,3,FALSE)</f>
+        <v>0.95,0.83,0.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(A97,abilvalue!C:E,2,FALSE)</f>
+        <v>1000동</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>VLOOKUP(A97,abilvalue!C:E,3,FALSE)</f>
+        <v>0.96,0.84,0.66</v>
       </c>
     </row>
   </sheetData>
@@ -2868,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O97"/>
+  <dimension ref="C5:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3978,7 +4074,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H97" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H101" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -5550,6 +5646,102 @@
       <c r="H97">
         <f t="shared" si="6"/>
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>92</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" ref="E98:E101" si="61">F98&amp;","&amp;G98&amp;","&amp;H98</f>
+        <v>0.93,0.81,0.63</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ref="F98:G98" si="62">ROUNDUP(F97+0.01,5)</f>
+        <v>0.93</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="62"/>
+        <v>0.81</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>93</v>
+      </c>
+      <c r="D99" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="61"/>
+        <v>0.94,0.82,0.64</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ref="F99:G99" si="63">ROUNDUP(F98+0.01,5)</f>
+        <v>0.94</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="63"/>
+        <v>0.82</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>94</v>
+      </c>
+      <c r="D100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="61"/>
+        <v>0.95,0.83,0.65</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ref="F100:G100" si="64">ROUNDUP(F99+0.01,5)</f>
+        <v>0.95</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="64"/>
+        <v>0.83</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>95</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="61"/>
+        <v>0.96,0.84,0.66</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ref="F101:G101" si="65">ROUNDUP(F100+0.01,5)</f>
+        <v>0.96</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="65"/>
+        <v>0.84</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039CF6A-741A-45CF-91BD-FBA2CF5FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0DE177-5315-441D-B1B3-4A33597EF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DanjeonTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,22 @@
   </si>
   <si>
     <t>1000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2366,7 +2382,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B97" si="1">B67*10</f>
+        <f t="shared" ref="B68:B101" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -2953,6 +2969,86 @@
       <c r="E97" s="1" t="str">
         <f>VLOOKUP(A97,abilvalue!C:E,3,FALSE)</f>
         <v>0.96,0.84,0.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(A98,abilvalue!C:E,2,FALSE)</f>
+        <v>1멸</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>VLOOKUP(A98,abilvalue!C:E,3,FALSE)</f>
+        <v>0.97,0.85,0.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(A99,abilvalue!C:E,2,FALSE)</f>
+        <v>10멸</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>VLOOKUP(A99,abilvalue!C:E,3,FALSE)</f>
+        <v>0.98,0.86,0.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(A100,abilvalue!C:E,2,FALSE)</f>
+        <v>100멸</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>VLOOKUP(A100,abilvalue!C:E,3,FALSE)</f>
+        <v>0.99,0.87,0.69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(A101,abilvalue!C:E,2,FALSE)</f>
+        <v>1000멸</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>VLOOKUP(A101,abilvalue!C:E,3,FALSE)</f>
+        <v>1,0.88,0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2964,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O101"/>
+  <dimension ref="C5:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4074,7 +4170,7 @@
         <v>0.21</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H101" si="6">ROUNDUP(H37+0.01,5)</f>
+        <f t="shared" ref="H38:H102" si="6">ROUNDUP(H37+0.01,5)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -5742,6 +5838,102 @@
       <c r="H101">
         <f t="shared" si="6"/>
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>96</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" ref="E102:E105" si="66">F102&amp;","&amp;G102&amp;","&amp;H102</f>
+        <v>0.97,0.85,0.67</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ref="F102:G102" si="67">ROUNDUP(F101+0.01,5)</f>
+        <v>0.97</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="67"/>
+        <v>0.85</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="6"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>97</v>
+      </c>
+      <c r="D103" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="66"/>
+        <v>0.98,0.86,0.68</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ref="F103:H105" si="68">ROUNDUP(F102+0.01,5)</f>
+        <v>0.98</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="68"/>
+        <v>0.86</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="68"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>98</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="66"/>
+        <v>0.99,0.87,0.69</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ref="F104:G104" si="69">ROUNDUP(F103+0.01,5)</f>
+        <v>0.99</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="69"/>
+        <v>0.87</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="68"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>99</v>
+      </c>
+      <c r="D105" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="66"/>
+        <v>1,0.88,0.7</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ref="F105:G105" si="70">ROUNDUP(F104+0.01,5)</f>
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="70"/>
+        <v>0.88</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="68"/>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0DE177-5315-441D-B1B3-4A33597EF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F1E49-F5E2-498A-9006-5D28ACB11F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,38 @@
   </si>
   <si>
     <t>1000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2382,7 +2414,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B101" si="1">B67*10</f>
+        <f t="shared" ref="B68:B109" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3049,6 +3081,166 @@
       <c r="E101" s="1" t="str">
         <f>VLOOKUP(A101,abilvalue!C:E,3,FALSE)</f>
         <v>1,0.88,0.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(A102,abilvalue!C:E,2,FALSE)</f>
+        <v>1향</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>VLOOKUP(A102,abilvalue!C:E,3,FALSE)</f>
+        <v>1.01,0.89,0.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(A103,abilvalue!C:E,2,FALSE)</f>
+        <v>10향</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>VLOOKUP(A103,abilvalue!C:E,3,FALSE)</f>
+        <v>1.02,0.9,0.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(A104,abilvalue!C:E,2,FALSE)</f>
+        <v>100향</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>VLOOKUP(A104,abilvalue!C:E,3,FALSE)</f>
+        <v>1.03,0.91,0.73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(A105,abilvalue!C:E,2,FALSE)</f>
+        <v>1000향</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>VLOOKUP(A105,abilvalue!C:E,3,FALSE)</f>
+        <v>1.04,0.92,0.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(A106,abilvalue!C:E,2,FALSE)</f>
+        <v>1증</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>VLOOKUP(A106,abilvalue!C:E,3,FALSE)</f>
+        <v>1.05,0.93,0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(A107,abilvalue!C:E,2,FALSE)</f>
+        <v>10증</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>VLOOKUP(A107,abilvalue!C:E,3,FALSE)</f>
+        <v>1.06,0.94,0.76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(A108,abilvalue!C:E,2,FALSE)</f>
+        <v>100증</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>VLOOKUP(A108,abilvalue!C:E,3,FALSE)</f>
+        <v>1.07,0.95,0.77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(A109,abilvalue!C:E,2,FALSE)</f>
+        <v>1000증</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>VLOOKUP(A109,abilvalue!C:E,3,FALSE)</f>
+        <v>1.08,0.96,0.78</v>
       </c>
     </row>
   </sheetData>
@@ -3060,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O105"/>
+  <dimension ref="C5:O113"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5876,7 +6068,7 @@
         <v>0.98,0.86,0.68</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:H105" si="68">ROUNDUP(F102+0.01,5)</f>
+        <f t="shared" ref="F103:H106" si="68">ROUNDUP(F102+0.01,5)</f>
         <v>0.98</v>
       </c>
       <c r="G103">
@@ -5934,6 +6126,198 @@
       <c r="H105">
         <f t="shared" si="68"/>
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" ref="E106:E113" si="71">F106&amp;","&amp;G106&amp;","&amp;H106</f>
+        <v>1.01,0.89,0.71</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ref="F106:G106" si="72">ROUNDUP(F105+0.01,5)</f>
+        <v>1.01</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="72"/>
+        <v>0.89</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="68"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>101</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="71"/>
+        <v>1.02,0.9,0.72</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ref="F107:H107" si="73">ROUNDUP(F106+0.01,5)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="73"/>
+        <v>0.9</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="73"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="71"/>
+        <v>1.03,0.91,0.73</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ref="F108:H108" si="74">ROUNDUP(F107+0.01,5)</f>
+        <v>1.03</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="74"/>
+        <v>0.91</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="74"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="71"/>
+        <v>1.04,0.92,0.74</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ref="F109:H110" si="75">ROUNDUP(F108+0.01,5)</f>
+        <v>1.04</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="75"/>
+        <v>0.92</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="75"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>104</v>
+      </c>
+      <c r="D110" t="s">
+        <v>172</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="71"/>
+        <v>1.05,0.93,0.75</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ref="F110:G110" si="76">ROUNDUP(F109+0.01,5)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="76"/>
+        <v>0.93</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="75"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="71"/>
+        <v>1.06,0.94,0.76</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ref="F111:H111" si="77">ROUNDUP(F110+0.01,5)</f>
+        <v>1.06</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="77"/>
+        <v>0.94</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="77"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>106</v>
+      </c>
+      <c r="D112" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="71"/>
+        <v>1.07,0.95,0.77</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ref="F112:H112" si="78">ROUNDUP(F111+0.01,5)</f>
+        <v>1.07</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="78"/>
+        <v>0.95</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="78"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>107</v>
+      </c>
+      <c r="D113" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="71"/>
+        <v>1.08,0.96,0.78</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113:H113" si="79">ROUNDUP(F112+0.01,5)</f>
+        <v>1.08</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="79"/>
+        <v>0.96</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="79"/>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F1E49-F5E2-498A-9006-5D28ACB11F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF620340-F5B3-4B86-AF43-78415BC49B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,22 @@
   </si>
   <si>
     <t>1000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,11 +1152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2414,7 +2430,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B109" si="1">B67*10</f>
+        <f t="shared" ref="B68:B113" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3241,6 +3257,86 @@
       <c r="E109" s="1" t="str">
         <f>VLOOKUP(A109,abilvalue!C:E,3,FALSE)</f>
         <v>1.08,0.96,0.78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="C110" t="str">
+        <f>VLOOKUP(A110,abilvalue!C:E,2,FALSE)</f>
+        <v>1쾌</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>VLOOKUP(A110,abilvalue!C:E,3,FALSE)</f>
+        <v>1.09,0.97,0.79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+205</v>
+      </c>
+      <c r="C111" t="str">
+        <f>VLOOKUP(A111,abilvalue!C:E,2,FALSE)</f>
+        <v>10쾌</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>VLOOKUP(A111,abilvalue!C:E,3,FALSE)</f>
+        <v>1.1,0.98,0.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+206</v>
+      </c>
+      <c r="C112" t="str">
+        <f>VLOOKUP(A112,abilvalue!C:E,2,FALSE)</f>
+        <v>100쾌</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f>VLOOKUP(A112,abilvalue!C:E,3,FALSE)</f>
+        <v>1.11,0.99,0.81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+207</v>
+      </c>
+      <c r="C113" t="str">
+        <f>VLOOKUP(A113,abilvalue!C:E,2,FALSE)</f>
+        <v>1000쾌</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>VLOOKUP(A113,abilvalue!C:E,3,FALSE)</f>
+        <v>1.12,1,0.82</v>
       </c>
     </row>
   </sheetData>
@@ -3252,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O113"/>
+  <dimension ref="C5:O117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6320,6 +6416,102 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" ref="E114:E117" si="80">F114&amp;","&amp;G114&amp;","&amp;H114</f>
+        <v>1.09,0.97,0.79</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114:H114" si="81">ROUNDUP(F113+0.01,5)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="81"/>
+        <v>0.97</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="81"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>109</v>
+      </c>
+      <c r="D115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="80"/>
+        <v>1.1,0.98,0.8</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ref="F115:H115" si="82">ROUNDUP(F114+0.01,5)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="82"/>
+        <v>0.98</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="82"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>110</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="80"/>
+        <v>1.11,0.99,0.81</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ref="F116:H116" si="83">ROUNDUP(F115+0.01,5)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="83"/>
+        <v>0.99</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="83"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>111</v>
+      </c>
+      <c r="D117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="80"/>
+        <v>1.12,1,0.82</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ref="F117:H117" si="84">ROUNDUP(F116+0.01,5)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="84"/>
+        <v>0.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF620340-F5B3-4B86-AF43-78415BC49B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4917D4-64ED-4FFA-9FE8-541D45436363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="184">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,6 +753,22 @@
   </si>
   <si>
     <t>1000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,11 +1168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2430,7 +2446,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B113" si="1">B67*10</f>
+        <f t="shared" ref="B68:B117" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3337,6 +3353,86 @@
       <c r="E113" s="1" t="str">
         <f>VLOOKUP(A113,abilvalue!C:E,3,FALSE)</f>
         <v>1.12,1,0.82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="C114" t="str">
+        <f>VLOOKUP(A114,abilvalue!C:E,2,FALSE)</f>
+        <v>1우</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>VLOOKUP(A114,abilvalue!C:E,3,FALSE)</f>
+        <v>1.13,1.01,0.83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="C115" t="str">
+        <f>VLOOKUP(A115,abilvalue!C:E,2,FALSE)</f>
+        <v>10우</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>VLOOKUP(A115,abilvalue!C:E,3,FALSE)</f>
+        <v>1.14,1.02,0.84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="C116" t="str">
+        <f>VLOOKUP(A116,abilvalue!C:E,2,FALSE)</f>
+        <v>100우</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>VLOOKUP(A116,abilvalue!C:E,3,FALSE)</f>
+        <v>1.15,1.03,0.85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="C117" t="str">
+        <f>VLOOKUP(A117,abilvalue!C:E,2,FALSE)</f>
+        <v>1000우</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f>VLOOKUP(A117,abilvalue!C:E,3,FALSE)</f>
+        <v>1.16,1.04,0.86</v>
       </c>
     </row>
   </sheetData>
@@ -3348,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O117"/>
+  <dimension ref="C5:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6512,6 +6608,102 @@
         <v>0.82</v>
       </c>
     </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>112</v>
+      </c>
+      <c r="D118" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" ref="E118:E121" si="85">F118&amp;","&amp;G118&amp;","&amp;H118</f>
+        <v>1.13,1.01,0.83</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ref="F118:H118" si="86">ROUNDUP(F117+0.01,5)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="86"/>
+        <v>1.01</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="86"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>113</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="85"/>
+        <v>1.14,1.02,0.84</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ref="F119:H119" si="87">ROUNDUP(F118+0.01,5)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="87"/>
+        <v>1.02</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="87"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="85"/>
+        <v>1.15,1.03,0.85</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:H120" si="88">ROUNDUP(F119+0.01,5)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="88"/>
+        <v>1.03</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="88"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>115</v>
+      </c>
+      <c r="D121" t="s">
+        <v>183</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="85"/>
+        <v>1.16,1.04,0.86</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ref="F121:H121" si="89">ROUNDUP(F120+0.01,5)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="89"/>
+        <v>1.04</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="89"/>
+        <v>0.86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4917D4-64ED-4FFA-9FE8-541D45436363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA1341-919F-4BF2-B91E-5F82E53F4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,22 @@
   </si>
   <si>
     <t>1000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,9 +888,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -912,7 +928,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1018,7 +1034,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1160,7 +1176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1168,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2462,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B117" si="1">B67*10</f>
+        <f t="shared" ref="B68:B121" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3433,6 +3449,86 @@
       <c r="E117" s="1" t="str">
         <f>VLOOKUP(A117,abilvalue!C:E,3,FALSE)</f>
         <v>1.16,1.04,0.86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="C118" t="str">
+        <f>VLOOKUP(A118,abilvalue!C:E,2,FALSE)</f>
+        <v>1팽</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f>VLOOKUP(A118,abilvalue!C:E,3,FALSE)</f>
+        <v>1.17,1.05,0.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="C119" t="str">
+        <f>VLOOKUP(A119,abilvalue!C:E,2,FALSE)</f>
+        <v>10팽</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f>VLOOKUP(A119,abilvalue!C:E,3,FALSE)</f>
+        <v>1.18,1.06,0.88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="C120" t="str">
+        <f>VLOOKUP(A120,abilvalue!C:E,2,FALSE)</f>
+        <v>100팽</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f>VLOOKUP(A120,abilvalue!C:E,3,FALSE)</f>
+        <v>1.19,1.07,0.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="C121" t="str">
+        <f>VLOOKUP(A121,abilvalue!C:E,2,FALSE)</f>
+        <v>1000팽</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f>VLOOKUP(A121,abilvalue!C:E,3,FALSE)</f>
+        <v>1.2,1.08,0.9</v>
       </c>
     </row>
   </sheetData>
@@ -3444,10 +3540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O121"/>
+  <dimension ref="C5:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6704,6 +6800,102 @@
         <v>0.86</v>
       </c>
     </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" ref="E122:E125" si="90">F122&amp;","&amp;G122&amp;","&amp;H122</f>
+        <v>1.17,1.05,0.87</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ref="F122:H122" si="91">ROUNDUP(F121+0.01,5)</f>
+        <v>1.17</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="91"/>
+        <v>1.05</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="91"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>117</v>
+      </c>
+      <c r="D123" t="s">
+        <v>185</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="90"/>
+        <v>1.18,1.06,0.88</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123:H123" si="92">ROUNDUP(F122+0.01,5)</f>
+        <v>1.18</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="92"/>
+        <v>1.06</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="92"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>118</v>
+      </c>
+      <c r="D124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="90"/>
+        <v>1.19,1.07,0.89</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ref="F124:H124" si="93">ROUNDUP(F123+0.01,5)</f>
+        <v>1.19</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="93"/>
+        <v>1.07</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="93"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>119</v>
+      </c>
+      <c r="D125" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="90"/>
+        <v>1.2,1.08,0.9</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ref="F125:H125" si="94">ROUNDUP(F124+0.01,5)</f>
+        <v>1.2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="94"/>
+        <v>1.08</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="94"/>
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA1341-919F-4BF2-B91E-5F82E53F4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AFE601-05A0-477F-86A1-84EC5338D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="196">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,38 @@
   </si>
   <si>
     <t>1000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,11 +1216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B121" si="1">B67*10</f>
+        <f t="shared" ref="B68:B129" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3529,6 +3561,166 @@
       <c r="E121" s="1" t="str">
         <f>VLOOKUP(A121,abilvalue!C:E,3,FALSE)</f>
         <v>1.2,1.08,0.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+216</v>
+      </c>
+      <c r="C122" t="str">
+        <f>VLOOKUP(A122,abilvalue!C:E,2,FALSE)</f>
+        <v>1관</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f>VLOOKUP(A122,abilvalue!C:E,3,FALSE)</f>
+        <v>1.21,1.09,0.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="C123" t="str">
+        <f>VLOOKUP(A123,abilvalue!C:E,2,FALSE)</f>
+        <v>10관</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E123" s="1" t="str">
+        <f>VLOOKUP(A123,abilvalue!C:E,3,FALSE)</f>
+        <v>1.22,1.1,0.92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C124" t="str">
+        <f>VLOOKUP(A124,abilvalue!C:E,2,FALSE)</f>
+        <v>100관</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f>VLOOKUP(A124,abilvalue!C:E,3,FALSE)</f>
+        <v>1.23,1.11,0.93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="C125" t="str">
+        <f>VLOOKUP(A125,abilvalue!C:E,2,FALSE)</f>
+        <v>1000관</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f>VLOOKUP(A125,abilvalue!C:E,3,FALSE)</f>
+        <v>1.24,1.12,0.94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C126" t="str">
+        <f>VLOOKUP(A126,abilvalue!C:E,2,FALSE)</f>
+        <v>1한</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E126" s="1" t="str">
+        <f>VLOOKUP(A126,abilvalue!C:E,3,FALSE)</f>
+        <v>1.25,1.13,0.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+221</v>
+      </c>
+      <c r="C127" t="str">
+        <f>VLOOKUP(A127,abilvalue!C:E,2,FALSE)</f>
+        <v>10한</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <f>VLOOKUP(A127,abilvalue!C:E,3,FALSE)</f>
+        <v>1.26,1.14,0.96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C128" t="str">
+        <f>VLOOKUP(A128,abilvalue!C:E,2,FALSE)</f>
+        <v>100한</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="1" t="str">
+        <f>VLOOKUP(A128,abilvalue!C:E,3,FALSE)</f>
+        <v>1.27,1.15,0.97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+223</v>
+      </c>
+      <c r="C129" t="str">
+        <f>VLOOKUP(A129,abilvalue!C:E,2,FALSE)</f>
+        <v>1000한</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="1" t="str">
+        <f>VLOOKUP(A129,abilvalue!C:E,3,FALSE)</f>
+        <v>1.28,1.16,0.98</v>
       </c>
     </row>
   </sheetData>
@@ -3540,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O125"/>
+  <dimension ref="C5:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6896,6 +7088,198 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>120</v>
+      </c>
+      <c r="D126" t="s">
+        <v>188</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" ref="E126:E133" si="95">F126&amp;","&amp;G126&amp;","&amp;H126</f>
+        <v>1.21,1.09,0.91</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ref="F126:H126" si="96">ROUNDUP(F125+0.01,5)</f>
+        <v>1.21</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="96"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="96"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>121</v>
+      </c>
+      <c r="D127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="95"/>
+        <v>1.22,1.1,0.92</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ref="F127:H127" si="97">ROUNDUP(F126+0.01,5)</f>
+        <v>1.22</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="97"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="97"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>122</v>
+      </c>
+      <c r="D128" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="95"/>
+        <v>1.23,1.11,0.93</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ref="F128:H128" si="98">ROUNDUP(F127+0.01,5)</f>
+        <v>1.23</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="98"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="98"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>123</v>
+      </c>
+      <c r="D129" t="s">
+        <v>191</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="95"/>
+        <v>1.24,1.12,0.94</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ref="F129:H129" si="99">ROUNDUP(F128+0.01,5)</f>
+        <v>1.24</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="99"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="99"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>124</v>
+      </c>
+      <c r="D130" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="95"/>
+        <v>1.25,1.13,0.95</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:H130" si="100">ROUNDUP(F129+0.01,5)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="100"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="100"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>125</v>
+      </c>
+      <c r="D131" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="95"/>
+        <v>1.26,1.14,0.96</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:H131" si="101">ROUNDUP(F130+0.01,5)</f>
+        <v>1.26</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="101"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="101"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>126</v>
+      </c>
+      <c r="D132" t="s">
+        <v>194</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="95"/>
+        <v>1.27,1.15,0.97</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:H132" si="102">ROUNDUP(F131+0.01,5)</f>
+        <v>1.27</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="102"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="102"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>127</v>
+      </c>
+      <c r="D133" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="95"/>
+        <v>1.28,1.16,0.98</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ref="F133:H133" si="103">ROUNDUP(F132+0.01,5)</f>
+        <v>1.28</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="103"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="103"/>
+        <v>0.98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AFE601-05A0-477F-86A1-84EC5338D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB186D-7ADA-4090-96D4-0B66121C976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="200">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,22 @@
   </si>
   <si>
     <t>1000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,11 +1232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2494,7 +2510,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B129" si="1">B67*10</f>
+        <f t="shared" ref="B68:B131" si="1">B67*10</f>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="C68" t="s">
@@ -3721,6 +3737,86 @@
       <c r="E129" s="1" t="str">
         <f>VLOOKUP(A129,abilvalue!C:E,3,FALSE)</f>
         <v>1.28,1.16,0.98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C130" t="str">
+        <f>VLOOKUP(A130,abilvalue!C:E,2,FALSE)</f>
+        <v>1혈</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E130" s="1" t="str">
+        <f>VLOOKUP(A130,abilvalue!C:E,3,FALSE)</f>
+        <v>1.29,1.17,0.99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="C131" t="str">
+        <f>VLOOKUP(A131,abilvalue!C:E,2,FALSE)</f>
+        <v>10혈</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="1" t="str">
+        <f>VLOOKUP(A131,abilvalue!C:E,3,FALSE)</f>
+        <v>1.3,1.18,1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C132" t="str">
+        <f>VLOOKUP(A132,abilvalue!C:E,2,FALSE)</f>
+        <v>100혈</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="1" t="str">
+        <f>VLOOKUP(A132,abilvalue!C:E,3,FALSE)</f>
+        <v>1.31,1.19,1.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="C133" t="str">
+        <f>VLOOKUP(A133,abilvalue!C:E,2,FALSE)</f>
+        <v>1000혈</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E133" s="1" t="str">
+        <f>VLOOKUP(A133,abilvalue!C:E,3,FALSE)</f>
+        <v>1.32,1.2,1.02</v>
       </c>
     </row>
   </sheetData>
@@ -3732,9 +3828,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O133"/>
+  <dimension ref="C5:O137"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
@@ -7280,6 +7376,102 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>128</v>
+      </c>
+      <c r="D134" t="s">
+        <v>196</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" ref="E134:E137" si="104">F134&amp;","&amp;G134&amp;","&amp;H134</f>
+        <v>1.29,1.17,0.99</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ref="F134:H134" si="105">ROUNDUP(F133+0.01,5)</f>
+        <v>1.29</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="105"/>
+        <v>1.17</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="105"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>129</v>
+      </c>
+      <c r="D135" t="s">
+        <v>197</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="104"/>
+        <v>1.3,1.18,1</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ref="F135:H135" si="106">ROUNDUP(F134+0.01,5)</f>
+        <v>1.3</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="106"/>
+        <v>1.18</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>130</v>
+      </c>
+      <c r="D136" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="104"/>
+        <v>1.31,1.19,1.01</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ref="F136:H136" si="107">ROUNDUP(F135+0.01,5)</f>
+        <v>1.31</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="107"/>
+        <v>1.19</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="107"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>131</v>
+      </c>
+      <c r="D137" t="s">
+        <v>199</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="104"/>
+        <v>1.32,1.2,1.02</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ref="F137:H137" si="108">ROUNDUP(F136+0.01,5)</f>
+        <v>1.32</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="108"/>
+        <v>1.2</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="108"/>
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB186D-7ADA-4090-96D4-0B66121C976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87584CC1-4320-4760-9F16-C04817976006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="204">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,6 +833,22 @@
   </si>
   <si>
     <t>1000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3800,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <f t="shared" ref="B132:B137" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -3817,6 +3833,86 @@
       <c r="E133" s="1" t="str">
         <f>VLOOKUP(A133,abilvalue!C:E,3,FALSE)</f>
         <v>1.32,1.2,1.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C134" t="str">
+        <f>VLOOKUP(A134,abilvalue!C:E,2,FALSE)</f>
+        <v>1연</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="1" t="str">
+        <f>VLOOKUP(A134,abilvalue!C:E,3,FALSE)</f>
+        <v>1.33,1.21,1.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="C135" t="str">
+        <f>VLOOKUP(A135,abilvalue!C:E,2,FALSE)</f>
+        <v>10연</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="1" t="str">
+        <f>VLOOKUP(A135,abilvalue!C:E,3,FALSE)</f>
+        <v>1.34,1.22,1.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C136" t="str">
+        <f>VLOOKUP(A136,abilvalue!C:E,2,FALSE)</f>
+        <v>100연</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E136" s="1" t="str">
+        <f>VLOOKUP(A136,abilvalue!C:E,3,FALSE)</f>
+        <v>1.35,1.23,1.05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="C137" t="str">
+        <f>VLOOKUP(A137,abilvalue!C:E,2,FALSE)</f>
+        <v>1000연</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E137" s="1" t="str">
+        <f>VLOOKUP(A137,abilvalue!C:E,3,FALSE)</f>
+        <v>1.36,1.24,1.06</v>
       </c>
     </row>
   </sheetData>
@@ -3828,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O137"/>
+  <dimension ref="C5:O141"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7384,7 +7480,7 @@
         <v>196</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" ref="E134:E137" si="104">F134&amp;","&amp;G134&amp;","&amp;H134</f>
+        <f t="shared" ref="E134:E141" si="104">F134&amp;","&amp;G134&amp;","&amp;H134</f>
         <v>1.29,1.17,0.99</v>
       </c>
       <c r="F134">
@@ -7470,6 +7566,102 @@
       <c r="H137">
         <f t="shared" si="108"/>
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>132</v>
+      </c>
+      <c r="D138" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="104"/>
+        <v>1.33,1.21,1.03</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ref="F138:H138" si="109">ROUNDUP(F137+0.01,5)</f>
+        <v>1.33</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="109"/>
+        <v>1.21</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="109"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>133</v>
+      </c>
+      <c r="D139" t="s">
+        <v>201</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="104"/>
+        <v>1.34,1.22,1.04</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ref="F139:H139" si="110">ROUNDUP(F138+0.01,5)</f>
+        <v>1.34</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="110"/>
+        <v>1.22</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="110"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>134</v>
+      </c>
+      <c r="D140" t="s">
+        <v>202</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="104"/>
+        <v>1.35,1.23,1.05</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ref="F140:H140" si="111">ROUNDUP(F139+0.01,5)</f>
+        <v>1.35</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="111"/>
+        <v>1.23</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="111"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>135</v>
+      </c>
+      <c r="D141" t="s">
+        <v>203</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="104"/>
+        <v>1.36,1.24,1.06</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ref="F141:H141" si="112">ROUNDUP(F140+0.01,5)</f>
+        <v>1.36</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="112"/>
+        <v>1.24</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="112"/>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87584CC1-4320-4760-9F16-C04817976006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933EA41-D752-4863-A7F7-4F369CD248C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,6 +849,22 @@
   </si>
   <si>
     <t>1000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3800,7 +3816,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B137" si="2">B131*10</f>
+        <f t="shared" ref="B132:B141" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -3913,6 +3929,86 @@
       <c r="E137" s="1" t="str">
         <f>VLOOKUP(A137,abilvalue!C:E,3,FALSE)</f>
         <v>1.36,1.24,1.06</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C138" t="str">
+        <f>VLOOKUP(A138,abilvalue!C:E,2,FALSE)</f>
+        <v>1난</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" s="1" t="str">
+        <f>VLOOKUP(A138,abilvalue!C:E,3,FALSE)</f>
+        <v>1.37,1.25,1.07</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="C139" t="str">
+        <f>VLOOKUP(A139,abilvalue!C:E,2,FALSE)</f>
+        <v>10난</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E139" s="1" t="str">
+        <f>VLOOKUP(A139,abilvalue!C:E,3,FALSE)</f>
+        <v>1.38,1.26,1.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+234</v>
+      </c>
+      <c r="C140" t="str">
+        <f>VLOOKUP(A140,abilvalue!C:E,2,FALSE)</f>
+        <v>100난</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="1" t="str">
+        <f>VLOOKUP(A140,abilvalue!C:E,3,FALSE)</f>
+        <v>1.39,1.27,1.09</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="C141" t="str">
+        <f>VLOOKUP(A141,abilvalue!C:E,2,FALSE)</f>
+        <v>1000난</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="1" t="str">
+        <f>VLOOKUP(A141,abilvalue!C:E,3,FALSE)</f>
+        <v>1.4,1.28,1.1</v>
       </c>
     </row>
   </sheetData>
@@ -3924,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O141"/>
+  <dimension ref="C5:O145"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7664,6 +7760,102 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>136</v>
+      </c>
+      <c r="D142" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" ref="E142:E145" si="113">F142&amp;","&amp;G142&amp;","&amp;H142</f>
+        <v>1.37,1.25,1.07</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ref="F142:H142" si="114">ROUNDUP(F141+0.01,5)</f>
+        <v>1.37</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="114"/>
+        <v>1.25</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="114"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>137</v>
+      </c>
+      <c r="D143" t="s">
+        <v>205</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="113"/>
+        <v>1.38,1.26,1.08</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:H143" si="115">ROUNDUP(F142+0.01,5)</f>
+        <v>1.38</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="115"/>
+        <v>1.26</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="115"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>138</v>
+      </c>
+      <c r="D144" t="s">
+        <v>206</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="113"/>
+        <v>1.39,1.27,1.09</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ref="F144:H144" si="116">ROUNDUP(F143+0.01,5)</f>
+        <v>1.39</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="116"/>
+        <v>1.27</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="116"/>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>139</v>
+      </c>
+      <c r="D145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="113"/>
+        <v>1.4,1.28,1.1</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ref="F145:H145" si="117">ROUNDUP(F144+0.01,5)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="117"/>
+        <v>1.28</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="117"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933EA41-D752-4863-A7F7-4F369CD248C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0546764-7498-4212-AD40-70E52D26BB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="212">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,6 +865,22 @@
   </si>
   <si>
     <t>1000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3816,7 +3832,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B141" si="2">B131*10</f>
+        <f t="shared" ref="B132:B145" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4009,6 +4025,86 @@
       <c r="E141" s="1" t="str">
         <f>VLOOKUP(A141,abilvalue!C:E,3,FALSE)</f>
         <v>1.4,1.28,1.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="C142" t="str">
+        <f>VLOOKUP(A142,abilvalue!C:E,2,FALSE)</f>
+        <v>1군</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <f>VLOOKUP(A142,abilvalue!C:E,3,FALSE)</f>
+        <v>1.41,1.29,1.11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="C143" t="str">
+        <f>VLOOKUP(A143,abilvalue!C:E,2,FALSE)</f>
+        <v>10군</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" s="1" t="str">
+        <f>VLOOKUP(A143,abilvalue!C:E,3,FALSE)</f>
+        <v>1.42,1.3,1.12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+238</v>
+      </c>
+      <c r="C144" t="str">
+        <f>VLOOKUP(A144,abilvalue!C:E,2,FALSE)</f>
+        <v>100군</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="1" t="str">
+        <f>VLOOKUP(A144,abilvalue!C:E,3,FALSE)</f>
+        <v>1.43,1.31,1.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="C145" t="str">
+        <f>VLOOKUP(A145,abilvalue!C:E,2,FALSE)</f>
+        <v>1000군</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145" s="1" t="str">
+        <f>VLOOKUP(A145,abilvalue!C:E,3,FALSE)</f>
+        <v>1.44,1.32,1.14</v>
       </c>
     </row>
   </sheetData>
@@ -4020,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O145"/>
+  <dimension ref="C5:O149"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7856,6 +7952,102 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>140</v>
+      </c>
+      <c r="D146" t="s">
+        <v>208</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" ref="E146:E149" si="118">F146&amp;","&amp;G146&amp;","&amp;H146</f>
+        <v>1.41,1.29,1.11</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ref="F146:H146" si="119">ROUNDUP(F145+0.01,5)</f>
+        <v>1.41</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="119"/>
+        <v>1.29</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="119"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>141</v>
+      </c>
+      <c r="D147" t="s">
+        <v>209</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="118"/>
+        <v>1.42,1.3,1.12</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ref="F147:H147" si="120">ROUNDUP(F146+0.01,5)</f>
+        <v>1.42</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="120"/>
+        <v>1.3</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="120"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>142</v>
+      </c>
+      <c r="D148" t="s">
+        <v>210</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="118"/>
+        <v>1.43,1.31,1.13</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ref="F148:H148" si="121">ROUNDUP(F147+0.01,5)</f>
+        <v>1.43</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="121"/>
+        <v>1.31</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="121"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>143</v>
+      </c>
+      <c r="D149" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="118"/>
+        <v>1.44,1.32,1.14</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ref="F149:H149" si="122">ROUNDUP(F148+0.01,5)</f>
+        <v>1.44</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="122"/>
+        <v>1.32</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="122"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0546764-7498-4212-AD40-70E52D26BB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA16852-F44C-4F82-9CBC-6C3627938878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,22 @@
   </si>
   <si>
     <t>1000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3832,7 +3848,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B145" si="2">B131*10</f>
+        <f t="shared" ref="B132:B149" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4105,6 +4121,86 @@
       <c r="E145" s="1" t="str">
         <f>VLOOKUP(A145,abilvalue!C:E,3,FALSE)</f>
         <v>1.44,1.32,1.14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="C146" t="str">
+        <f>VLOOKUP(A146,abilvalue!C:E,2,FALSE)</f>
+        <v>1결</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E146" s="1" t="str">
+        <f>VLOOKUP(A146,abilvalue!C:E,3,FALSE)</f>
+        <v>1.45,1.33,1.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="C147" t="str">
+        <f>VLOOKUP(A147,abilvalue!C:E,2,FALSE)</f>
+        <v>10결</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147" s="1" t="str">
+        <f>VLOOKUP(A147,abilvalue!C:E,3,FALSE)</f>
+        <v>1.46,1.34,1.16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="C148" t="str">
+        <f>VLOOKUP(A148,abilvalue!C:E,2,FALSE)</f>
+        <v>100결</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E148" s="1" t="str">
+        <f>VLOOKUP(A148,abilvalue!C:E,3,FALSE)</f>
+        <v>1.47,1.35,1.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="C149" t="str">
+        <f>VLOOKUP(A149,abilvalue!C:E,2,FALSE)</f>
+        <v>1000결</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E149" s="1" t="str">
+        <f>VLOOKUP(A149,abilvalue!C:E,3,FALSE)</f>
+        <v>1.48,1.36,1.18</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O149"/>
+  <dimension ref="C5:O153"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8048,6 +8144,102 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>144</v>
+      </c>
+      <c r="D150" t="s">
+        <v>212</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" ref="E150:E153" si="123">F150&amp;","&amp;G150&amp;","&amp;H150</f>
+        <v>1.45,1.33,1.15</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ref="F150:H150" si="124">ROUNDUP(F149+0.01,5)</f>
+        <v>1.45</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="124"/>
+        <v>1.33</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="124"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>145</v>
+      </c>
+      <c r="D151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="123"/>
+        <v>1.46,1.34,1.16</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ref="F151:H151" si="125">ROUNDUP(F150+0.01,5)</f>
+        <v>1.46</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="125"/>
+        <v>1.34</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="125"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>146</v>
+      </c>
+      <c r="D152" t="s">
+        <v>214</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="123"/>
+        <v>1.47,1.35,1.17</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ref="F152:H152" si="126">ROUNDUP(F151+0.01,5)</f>
+        <v>1.47</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="126"/>
+        <v>1.35</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="126"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>147</v>
+      </c>
+      <c r="D153" t="s">
+        <v>215</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="123"/>
+        <v>1.48,1.36,1.18</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ref="F153:H153" si="127">ROUNDUP(F152+0.01,5)</f>
+        <v>1.48</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="127"/>
+        <v>1.36</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="127"/>
+        <v>1.18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA16852-F44C-4F82-9CBC-6C3627938878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32917291-F230-4956-9980-A5A69EA40EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="220">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,6 +897,22 @@
   </si>
   <si>
     <t>1000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3848,7 +3864,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B149" si="2">B131*10</f>
+        <f t="shared" ref="B132:B153" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4201,6 +4217,86 @@
       <c r="E149" s="1" t="str">
         <f>VLOOKUP(A149,abilvalue!C:E,3,FALSE)</f>
         <v>1.48,1.36,1.18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="C150" t="str">
+        <f>VLOOKUP(A150,abilvalue!C:E,2,FALSE)</f>
+        <v>1맥</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E150" s="1" t="str">
+        <f>VLOOKUP(A150,abilvalue!C:E,3,FALSE)</f>
+        <v>1.49,1.37,1.19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+245</v>
+      </c>
+      <c r="C151" t="str">
+        <f>VLOOKUP(A151,abilvalue!C:E,2,FALSE)</f>
+        <v>10맥</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E151" s="1" t="str">
+        <f>VLOOKUP(A151,abilvalue!C:E,3,FALSE)</f>
+        <v>1.5,1.38,1.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="C152" t="str">
+        <f>VLOOKUP(A152,abilvalue!C:E,2,FALSE)</f>
+        <v>100맥</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" s="1" t="str">
+        <f>VLOOKUP(A152,abilvalue!C:E,3,FALSE)</f>
+        <v>1.51,1.39,1.21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="C153" t="str">
+        <f>VLOOKUP(A153,abilvalue!C:E,2,FALSE)</f>
+        <v>1000맥</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" s="1" t="str">
+        <f>VLOOKUP(A153,abilvalue!C:E,3,FALSE)</f>
+        <v>1.52,1.4,1.22</v>
       </c>
     </row>
   </sheetData>
@@ -4212,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O153"/>
+  <dimension ref="C5:O157"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8240,6 +8336,102 @@
         <v>1.18</v>
       </c>
     </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>148</v>
+      </c>
+      <c r="D154" t="s">
+        <v>216</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" ref="E154:E157" si="128">F154&amp;","&amp;G154&amp;","&amp;H154</f>
+        <v>1.49,1.37,1.19</v>
+      </c>
+      <c r="F154">
+        <f t="shared" ref="F154:H154" si="129">ROUNDUP(F153+0.01,5)</f>
+        <v>1.49</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="129"/>
+        <v>1.37</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="129"/>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>149</v>
+      </c>
+      <c r="D155" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="128"/>
+        <v>1.5,1.38,1.2</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ref="F155:H155" si="130">ROUNDUP(F154+0.01,5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="130"/>
+        <v>1.38</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="130"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>150</v>
+      </c>
+      <c r="D156" t="s">
+        <v>218</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="128"/>
+        <v>1.51,1.39,1.21</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ref="F156:H156" si="131">ROUNDUP(F155+0.01,5)</f>
+        <v>1.51</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="131"/>
+        <v>1.39</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="131"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>151</v>
+      </c>
+      <c r="D157" t="s">
+        <v>219</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="128"/>
+        <v>1.52,1.4,1.22</v>
+      </c>
+      <c r="F157">
+        <f t="shared" ref="F157:H157" si="132">ROUNDUP(F156+0.01,5)</f>
+        <v>1.52</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="132"/>
+        <v>1.4</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="132"/>
+        <v>1.22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32917291-F230-4956-9980-A5A69EA40EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473468AD-7A14-429C-9505-D29B0A00D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="224">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,6 +913,22 @@
   </si>
   <si>
     <t>1000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,11 +1328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3880,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B153" si="2">B131*10</f>
+        <f t="shared" ref="B132:B157" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4297,6 +4313,86 @@
       <c r="E153" s="1" t="str">
         <f>VLOOKUP(A153,abilvalue!C:E,3,FALSE)</f>
         <v>1.52,1.4,1.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="C154" t="str">
+        <f>VLOOKUP(A154,abilvalue!C:E,2,FALSE)</f>
+        <v>1토</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E154" s="1" t="str">
+        <f>VLOOKUP(A154,abilvalue!C:E,3,FALSE)</f>
+        <v>1.53,1.41,1.23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="C155" t="str">
+        <f>VLOOKUP(A155,abilvalue!C:E,2,FALSE)</f>
+        <v>10토</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" s="1" t="str">
+        <f>VLOOKUP(A155,abilvalue!C:E,3,FALSE)</f>
+        <v>1.54,1.42,1.24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="C156" t="str">
+        <f>VLOOKUP(A156,abilvalue!C:E,2,FALSE)</f>
+        <v>100토</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="1" t="str">
+        <f>VLOOKUP(A156,abilvalue!C:E,3,FALSE)</f>
+        <v>1.55,1.43,1.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+251</v>
+      </c>
+      <c r="C157" t="str">
+        <f>VLOOKUP(A157,abilvalue!C:E,2,FALSE)</f>
+        <v>1000토</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E157" s="1" t="str">
+        <f>VLOOKUP(A157,abilvalue!C:E,3,FALSE)</f>
+        <v>1.56,1.44,1.26</v>
       </c>
     </row>
   </sheetData>
@@ -4308,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O157"/>
+  <dimension ref="C5:O161"/>
   <sheetViews>
     <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8432,6 +8528,102 @@
         <v>1.22</v>
       </c>
     </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>152</v>
+      </c>
+      <c r="D158" t="s">
+        <v>220</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" ref="E158:E161" si="133">F158&amp;","&amp;G158&amp;","&amp;H158</f>
+        <v>1.53,1.41,1.23</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ref="F158:H158" si="134">ROUNDUP(F157+0.01,5)</f>
+        <v>1.53</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="134"/>
+        <v>1.41</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="134"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>153</v>
+      </c>
+      <c r="D159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="133"/>
+        <v>1.54,1.42,1.24</v>
+      </c>
+      <c r="F159">
+        <f t="shared" ref="F159:H159" si="135">ROUNDUP(F158+0.01,5)</f>
+        <v>1.54</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="135"/>
+        <v>1.42</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="135"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>154</v>
+      </c>
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="133"/>
+        <v>1.55,1.43,1.25</v>
+      </c>
+      <c r="F160">
+        <f t="shared" ref="F160:H160" si="136">ROUNDUP(F159+0.01,5)</f>
+        <v>1.55</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="136"/>
+        <v>1.43</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="136"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>155</v>
+      </c>
+      <c r="D161" t="s">
+        <v>223</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="133"/>
+        <v>1.56,1.44,1.26</v>
+      </c>
+      <c r="F161">
+        <f t="shared" ref="F161:H161" si="137">ROUNDUP(F160+0.01,5)</f>
+        <v>1.56</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="137"/>
+        <v>1.44</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="137"/>
+        <v>1.26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473468AD-7A14-429C-9505-D29B0A00D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E8327-AB5C-4A06-BDC8-35F854B0D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="228">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -929,6 +929,22 @@
   </si>
   <si>
     <t>1000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,11 +1344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3880,7 +3896,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B157" si="2">B131*10</f>
+        <f t="shared" ref="B132:B161" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4393,6 +4409,86 @@
       <c r="E157" s="1" t="str">
         <f>VLOOKUP(A157,abilvalue!C:E,3,FALSE)</f>
         <v>1.56,1.44,1.26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="C158" t="str">
+        <f>VLOOKUP(A158,abilvalue!C:E,2,FALSE)</f>
+        <v>1산</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" s="1" t="str">
+        <f>VLOOKUP(A158,abilvalue!C:E,3,FALSE)</f>
+        <v>1.57,1.45,1.27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="C159" t="str">
+        <f>VLOOKUP(A159,abilvalue!C:E,2,FALSE)</f>
+        <v>10산</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="1" t="str">
+        <f>VLOOKUP(A159,abilvalue!C:E,3,FALSE)</f>
+        <v>1.58,1.46,1.28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="C160" t="str">
+        <f>VLOOKUP(A160,abilvalue!C:E,2,FALSE)</f>
+        <v>100산</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E160" s="1" t="str">
+        <f>VLOOKUP(A160,abilvalue!C:E,3,FALSE)</f>
+        <v>1.59,1.47,1.29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="C161" t="str">
+        <f>VLOOKUP(A161,abilvalue!C:E,2,FALSE)</f>
+        <v>1000산</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E161" s="1" t="str">
+        <f>VLOOKUP(A161,abilvalue!C:E,3,FALSE)</f>
+        <v>1.6,1.48,1.3</v>
       </c>
     </row>
   </sheetData>
@@ -4404,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O161"/>
+  <dimension ref="C5:O165"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8624,6 +8720,102 @@
         <v>1.26</v>
       </c>
     </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>156</v>
+      </c>
+      <c r="D162" t="s">
+        <v>224</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" ref="E162:E165" si="138">F162&amp;","&amp;G162&amp;","&amp;H162</f>
+        <v>1.57,1.45,1.27</v>
+      </c>
+      <c r="F162">
+        <f t="shared" ref="F162:H162" si="139">ROUNDUP(F161+0.01,5)</f>
+        <v>1.57</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="139"/>
+        <v>1.45</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="139"/>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>157</v>
+      </c>
+      <c r="D163" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="138"/>
+        <v>1.58,1.46,1.28</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ref="F163:H163" si="140">ROUNDUP(F162+0.01,5)</f>
+        <v>1.58</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="140"/>
+        <v>1.46</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="140"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
+        <v>226</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="138"/>
+        <v>1.59,1.47,1.29</v>
+      </c>
+      <c r="F164">
+        <f t="shared" ref="F164:H164" si="141">ROUNDUP(F163+0.01,5)</f>
+        <v>1.59</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="141"/>
+        <v>1.47</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="141"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>159</v>
+      </c>
+      <c r="D165" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="138"/>
+        <v>1.6,1.48,1.3</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ref="F165:H165" si="142">ROUNDUP(F164+0.01,5)</f>
+        <v>1.6</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="142"/>
+        <v>1.48</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="142"/>
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DanjeonTable.xlsx
+++ b/Assets/06.Table/DanjeonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E8327-AB5C-4A06-BDC8-35F854B0D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393B2C2-BC1A-4829-A8A6-DCE3B6DE4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="240">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +945,54 @@
   </si>
   <si>
     <t>1000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,11 +1392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3896,7 +3944,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B161" si="2">B131*10</f>
+        <f t="shared" ref="B132:B173" si="2">B131*10</f>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="C132" t="str">
@@ -4489,6 +4537,246 @@
       <c r="E161" s="1" t="str">
         <f>VLOOKUP(A161,abilvalue!C:E,3,FALSE)</f>
         <v>1.6,1.48,1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+256</v>
+      </c>
+      <c r="C162" t="str">
+        <f>VLOOKUP(A162,abilvalue!C:E,2,FALSE)</f>
+        <v>1강</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E162" s="1" t="str">
+        <f>VLOOKUP(A162,abilvalue!C:E,3,FALSE)</f>
+        <v>1.61,1.49,1.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="2"/>
+        <v>1E+257</v>
+      </c>
+      <c r="C163" t="str">
+        <f>VLOOKUP(A163,abilvalue!C:E,2,FALSE)</f>
+        <v>10강</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E163" s="1" t="str">
+        <f>VLOOKUP(A163,abilvalue!C:E,3,FALSE)</f>
+        <v>1.62,1.5,1.32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="C164" t="str">
+        <f>VLOOKUP(A164,abilvalue!C:E,2,FALSE)</f>
+        <v>100강</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E164" s="1" t="str">
+        <f>VLOOKUP(A164,abilvalue!C:E,3,FALSE)</f>
+        <v>1.63,1.51,1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="C165" t="str">
+        <f>VLOOKUP(A165,abilvalue!C:E,2,FALSE)</f>
+        <v>1000강</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E165" s="1" t="str">
+        <f>VLOOKUP(A165,abilvalue!C:E,3,FALSE)</f>
+        <v>1.64,1.52,1.34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="C166" t="str">
+        <f>VLOOKUP(A166,abilvalue!C:E,2,FALSE)</f>
+        <v>1환</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E166" s="1" t="str">
+        <f>VLOOKUP(A166,abilvalue!C:E,3,FALSE)</f>
+        <v>1.65,1.53,1.35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="C167" t="str">
+        <f>VLOOKUP(A167,abilvalue!C:E,2,FALSE)</f>
+        <v>10환</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E167" s="1" t="str">
+        <f>VLOOKUP(A167,abilvalue!C:E,3,FALSE)</f>
+        <v>1.66,1.54,1.36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="C168" t="str">
+        <f>VLOOKUP(A168,abilvalue!C:E,2,FALSE)</f>
+        <v>100환</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" s="1" t="str">
+        <f>VLOOKUP(A168,abilvalue!C:E,3,FALSE)</f>
+        <v>1.67,1.55,1.37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="C169" t="str">
+        <f>VLOOKUP(A169,abilvalue!C:E,2,FALSE)</f>
+        <v>1000환</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E169" s="1" t="str">
+        <f>VLOOKUP(A169,abilvalue!C:E,3,FALSE)</f>
+        <v>1.68,1.56,1.38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="C170" t="str">
+        <f>VLOOKUP(A170,abilvalue!C:E,2,FALSE)</f>
+        <v>1종</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E170" s="1" t="str">
+        <f>VLOOKUP(A170,abilvalue!C:E,3,FALSE)</f>
+        <v>1.69,1.57,1.39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="C171" t="str">
+        <f>VLOOKUP(A171,abilvalue!C:E,2,FALSE)</f>
+        <v>10종</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E171" s="1" t="str">
+        <f>VLOOKUP(A171,abilvalue!C:E,3,FALSE)</f>
+        <v>1.7,1.58,1.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="C172" t="str">
+        <f>VLOOKUP(A172,abilvalue!C:E,2,FALSE)</f>
+        <v>100종</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E172" s="1" t="str">
+        <f>VLOOKUP(A172,abilvalue!C:E,3,FALSE)</f>
+        <v>1.71,1.59,1.41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="C173" t="str">
+        <f>VLOOKUP(A173,abilvalue!C:E,2,FALSE)</f>
+        <v>1000종</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E173" s="1" t="str">
+        <f>VLOOKUP(A173,abilvalue!C:E,3,FALSE)</f>
+        <v>1.72,1.6,1.42</v>
       </c>
     </row>
   </sheetData>
@@ -4500,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:O165"/>
+  <dimension ref="C5:O177"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8816,6 +9104,294 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>160</v>
+      </c>
+      <c r="D166" t="s">
+        <v>228</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" ref="E166:E177" si="143">F166&amp;","&amp;G166&amp;","&amp;H166</f>
+        <v>1.61,1.49,1.31</v>
+      </c>
+      <c r="F166">
+        <f t="shared" ref="F166:H166" si="144">ROUNDUP(F165+0.01,5)</f>
+        <v>1.61</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="144"/>
+        <v>1.49</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="144"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>161</v>
+      </c>
+      <c r="D167" t="s">
+        <v>229</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="143"/>
+        <v>1.62,1.5,1.32</v>
+      </c>
+      <c r="F167">
+        <f t="shared" ref="F167:H167" si="145">ROUNDUP(F166+0.01,5)</f>
+        <v>1.62</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="145"/>
+        <v>1.5</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="145"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>162</v>
+      </c>
+      <c r="D168" t="s">
+        <v>230</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="143"/>
+        <v>1.63,1.51,1.33</v>
+      </c>
+      <c r="F168">
+        <f t="shared" ref="F168:H168" si="146">ROUNDUP(F167+0.01,5)</f>
+        <v>1.63</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="146"/>
+        <v>1.51</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="146"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>163</v>
+      </c>
+      <c r="D169" t="s">
+        <v>231</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="143"/>
+        <v>1.64,1.52,1.34</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ref="F169:H169" si="147">ROUNDUP(F168+0.01,5)</f>
+        <v>1.64</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="147"/>
+        <v>1.52</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="147"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>164</v>
+      </c>
+      <c r="D170" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="143"/>
+        <v>1.65,1.53,1.35</v>
+      </c>
+      <c r="F170">
+        <f t="shared" ref="F170:H170" si="148">ROUNDUP(F169+0.01,5)</f>
+        <v>1.65</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="148"/>
+        <v>1.53</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="148"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>165</v>
+      </c>
+      <c r="D171" t="s">
+        <v>233</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="143"/>
+        <v>1.66,1.54,1.36</v>
+      </c>
+      <c r="F171">
+        <f t="shared" ref="F171:H171" si="149">ROUNDUP(F170+0.01,5)</f>
+        <v>1.66</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="149"/>
+        <v>1.54</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="149"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>166</v>
+      </c>
+      <c r="D172" t="s">
+        <v>234</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="143"/>
+        <v>1.67,1.55,1.37</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ref="F172:H172" si="150">ROUNDUP(F171+0.01,5)</f>
+        <v>1.67</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="150"/>
+        <v>1.55</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="150"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>167</v>
+      </c>
+      <c r="D173" t="s">
+        <v>235</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="143"/>
+        <v>1.68,1.56,1.38</v>
+      </c>
+      <c r="F173">
+        <f t="shared" ref="F173:H173" si="151">ROUNDUP(F172+0.01,5)</f>
+        <v>1.68</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="151"/>
+        <v>1.56</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="151"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>168</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="143"/>
+        <v>1.69,1.57,1.39</v>
+      </c>
+      <c r="F174">
+        <f t="shared" ref="F174:H174" si="152">ROUNDUP(F173+0.01,5)</f>
+        <v>1.69</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="152"/>
+        <v>1.57</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="152"/>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>169</v>
+      </c>
+      <c r="D175" t="s">
+        <v>237</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="143"/>
+        <v>1.7,1.58,1.4</v>
+      </c>
+      <c r="F175">
+        <f t="shared" ref="F175:H175" si="153">ROUNDUP(F174+0.01,5)</f>
+        <v>1.7</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="153"/>
+        <v>1.58</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="153"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>170</v>
+      </c>
+      <c r="D176" t="s">
+        <v>238</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="143"/>
+        <v>1.71,1.59,1.41</v>
+      </c>
+      <c r="F176">
+        <f t="shared" ref="F176:H176" si="154">ROUNDUP(F175+0.01,5)</f>
+        <v>1.71</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="154"/>
+        <v>1.59</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="154"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>171</v>
+      </c>
+      <c r="D177" t="s">
+        <v>239</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="143"/>
+        <v>1.72,1.6,1.42</v>
+      </c>
+      <c r="F177">
+        <f t="shared" ref="F177:H177" si="155">ROUNDUP(F176+0.01,5)</f>
+        <v>1.72</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="155"/>
+        <v>1.6</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="155"/>
+        <v>1.42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
